--- a/1.1P-Worklog_Jasdeep.xlsx
+++ b/1.1P-Worklog_Jasdeep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24422"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deakin365-my.sharepoint.com/personal/kaurjasdee_deakin_edu_au/Documents/SIT-723 Research Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\kaurjasdee.homes.deakin.edu.au\my-home\UserData\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="144" documentId="13_ncr:1_{BDBF6E55-0309-4BF8-8029-DA53914B5487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2E3451A-CDE6-43A0-ACF6-06A794FCECD2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{380B8A7B-DD71-478A-9172-CF3D7825274A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="70">
   <si>
     <t>Student Name</t>
   </si>
@@ -226,14 +226,32 @@
     <t>Evaluation Task</t>
   </si>
   <si>
+    <t>Worked on EDA</t>
+  </si>
+  <si>
+    <t>Finalised Literature review.</t>
+  </si>
+  <si>
+    <t>Comibed data files into one.</t>
+  </si>
+  <si>
+    <t>Read more papers, looked at different techniques on deep learning.</t>
+  </si>
+  <si>
     <t>Writing</t>
+  </si>
+  <si>
+    <t>Worked on Text analysis</t>
+  </si>
+  <si>
+    <t>Created Word Cloud based on Frequency based on the three different Vaccines</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -655,13 +673,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC54600-A529-144A-8AA1-058C0E013D1F}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="59" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="59" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="2" width="20.125" customWidth="1"/>
@@ -673,7 +691,7 @@
     <col min="8" max="8" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -697,7 +715,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="31.9" thickBot="1">
+    <row r="2" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -720,7 +738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="63" thickBot="1">
+    <row r="3" spans="1:8" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -743,7 +761,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="63" thickBot="1">
+    <row r="4" spans="1:8" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -766,7 +784,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="63" thickBot="1">
+    <row r="5" spans="1:8" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -789,7 +807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="63" thickBot="1">
+    <row r="6" spans="1:8" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -812,7 +830,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="63" thickBot="1">
+    <row r="7" spans="1:8" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -835,7 +853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="63" thickBot="1">
+    <row r="8" spans="1:8" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -858,7 +876,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="63" thickBot="1">
+    <row r="9" spans="1:8" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -881,7 +899,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="63" thickBot="1">
+    <row r="10" spans="1:8" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -904,7 +922,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="63" thickBot="1">
+    <row r="11" spans="1:8" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -927,7 +945,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="63" thickBot="1">
+    <row r="12" spans="1:8" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -950,7 +968,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="63" thickBot="1">
+    <row r="13" spans="1:8" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -973,7 +991,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="62.45">
+    <row r="14" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -996,7 +1014,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="63" thickBot="1">
+    <row r="15" spans="1:8" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1019,7 +1037,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="63" thickBot="1">
+    <row r="16" spans="1:8" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1042,7 +1060,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="63" thickBot="1">
+    <row r="17" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1065,7 +1083,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="62.45">
+    <row r="18" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1088,7 +1106,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="62.45">
+    <row r="19" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1111,7 +1129,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="62.45">
+    <row r="20" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1134,7 +1152,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="62.45">
+    <row r="21" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1157,7 +1175,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="63" thickBot="1">
+    <row r="22" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1180,7 +1198,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="63" thickBot="1">
+    <row r="23" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1203,7 +1221,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="63" thickBot="1">
+    <row r="24" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1226,7 +1244,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="62.45">
+    <row r="25" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1249,7 +1267,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="62.45">
+    <row r="26" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1272,7 +1290,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="63" thickBot="1">
+    <row r="27" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1295,7 +1313,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="63" thickBot="1">
+    <row r="28" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1318,7 +1336,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="63" thickBot="1">
+    <row r="29" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1341,7 +1359,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="63" thickBot="1">
+    <row r="30" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1364,7 +1382,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="63" thickBot="1">
+    <row r="31" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1387,7 +1405,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="63" thickBot="1">
+    <row r="32" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1410,7 +1428,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="63">
+    <row r="33" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1433,7 +1451,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="63">
+    <row r="34" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1456,7 +1474,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="63">
+    <row r="35" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -1479,7 +1497,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="63">
+    <row r="36" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -1502,7 +1520,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="63">
+    <row r="37" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -1525,7 +1543,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="63">
+    <row r="38" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -1548,7 +1566,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="63">
+    <row r="39" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -1571,7 +1589,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="63">
+    <row r="40" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -1594,7 +1612,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="63">
+    <row r="41" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -1617,7 +1635,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="63">
+    <row r="42" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -1640,7 +1658,236 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75"/>
+    <row r="43" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="5">
+        <v>44437</v>
+      </c>
+      <c r="E43">
+        <v>120</v>
+      </c>
+      <c r="F43" t="s">
+        <v>62</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="5">
+        <v>44438</v>
+      </c>
+      <c r="E44">
+        <v>120</v>
+      </c>
+      <c r="F44" t="s">
+        <v>45</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="5">
+        <v>44440</v>
+      </c>
+      <c r="E45">
+        <v>100</v>
+      </c>
+      <c r="F45" t="s">
+        <v>62</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="5">
+        <v>44442</v>
+      </c>
+      <c r="E46">
+        <v>100</v>
+      </c>
+      <c r="F46" t="s">
+        <v>62</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="5">
+        <v>44443</v>
+      </c>
+      <c r="E47">
+        <v>100</v>
+      </c>
+      <c r="F47" t="s">
+        <v>62</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="5">
+        <v>44444</v>
+      </c>
+      <c r="E48">
+        <v>120</v>
+      </c>
+      <c r="F48" t="s">
+        <v>62</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="5">
+        <v>44445</v>
+      </c>
+      <c r="E49">
+        <v>120</v>
+      </c>
+      <c r="F49" t="s">
+        <v>62</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="5">
+        <v>44447</v>
+      </c>
+      <c r="E50">
+        <v>120</v>
+      </c>
+      <c r="F50" t="s">
+        <v>62</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="5">
+        <v>44449</v>
+      </c>
+      <c r="E51">
+        <v>120</v>
+      </c>
+      <c r="F51" t="s">
+        <v>62</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="5">
+        <v>44450</v>
+      </c>
+      <c r="E52">
+        <v>120</v>
+      </c>
+      <c r="F52" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1673,12 +1920,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>10</v>
       </c>
@@ -1686,7 +1933,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20</v>
       </c>
@@ -1694,7 +1941,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>30</v>
       </c>
@@ -1702,7 +1949,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>40</v>
       </c>
@@ -1710,7 +1957,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>50</v>
       </c>
@@ -1718,7 +1965,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>60</v>
       </c>
@@ -1726,7 +1973,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>70</v>
       </c>
@@ -1734,7 +1981,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>80</v>
       </c>
@@ -1742,7 +1989,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>90</v>
       </c>
@@ -1750,15 +1997,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>110</v>
       </c>
@@ -1766,7 +2013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>120</v>
       </c>
@@ -1912,12 +2159,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1926,14 +2167,43 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FB1FFC3-B1E9-4426-A852-9D9BC12D3CD6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FB1FFC3-B1E9-4426-A852-9D9BC12D3CD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="01b46ff2-420f-42c8-8583-78d94109e361"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>